--- a/data/outputs/management/52.xlsx
+++ b/data/outputs/management/52.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ53"/>
+  <dimension ref="A1:BR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>6503983</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1335,6 +1346,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1548,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1737,6 +1750,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1954,6 +1968,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2155,6 +2170,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4792121</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2364,6 +2384,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2577,6 +2598,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2782,6 +2804,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2979,6 +3002,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3180,6 +3204,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4272209</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3385,6 +3414,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3594,6 +3624,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3803,6 +3834,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4237316</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4008,6 +4044,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>3938217</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4217,6 +4258,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4422,6 +4464,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4627,6 +4670,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3899497</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4824,6 +4872,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5025,6 +5074,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5214,6 +5264,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5435,6 +5486,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>10015946</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5636,6 +5692,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5841,6 +5898,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6046,6 +6104,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6259,6 +6318,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6472,6 +6532,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6677,6 +6738,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6886,6 +6948,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>2932476</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7087,6 +7154,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7288,6 +7356,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7477,6 +7546,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>2978324</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7670,6 +7744,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7879,6 +7954,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8080,6 +8156,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8269,6 +8346,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8470,6 +8548,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8675,6 +8754,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8876,6 +8956,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9085,6 +9166,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9286,6 +9368,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>2507183</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9495,6 +9582,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9696,6 +9784,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9897,6 +9986,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10102,6 +10192,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>2525429</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10287,6 +10382,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10472,6 +10568,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>3021711</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10661,6 +10762,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10850,6 +10952,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11051,6 +11154,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>2975953</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11268,6 +11376,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
